--- a/biology/Botanique/Alchemilla_alpigena/Alchemilla_alpigena.xlsx
+++ b/biology/Botanique/Alchemilla_alpigena/Alchemilla_alpigena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alchemilla Alpigena, est une espèce de plantes à fleurs de la famille des Rosaceae et du genre Alchemilla.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'alchemilla alpigena est aussi connue sous les noms d'alchémille plissée[1], alchémille alpigène[2] et alchémille à feuilles en forme de main[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'alchemilla alpigena est aussi connue sous les noms d'alchémille plissée, alchémille alpigène et alchémille à feuilles en forme de main.
 </t>
         </is>
       </c>
@@ -542,14 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante vivace, mesurant généralement entre 10 et 20 cm[4]. Elle arbore des feuilles glabres composées de 7 à 9 lobes[1].
-Sa période de floraison s'étend de juin à août[4]. Elle produit alors des fleurs, de couleur verdâtre[1], disposées en glomérules.
-Répartition
-Cette plante est présente sur plusieurs massifs montagneux européens, comme les Alpes[3], le Massif Central[2], les Vosges[1], le Jura[5] et les Pyrénées[6]. 
-On la retrouve ainsi en Allemagne, en Autriche, en Espagne, en France, en Italie, au Liechtenstein et en Suisse[2].
-Selon l'Inventaire National du Patrimoine Naturel, l'achemilla alpigena aurait été observée en Norvège et au Groenland[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante vivace, mesurant généralement entre 10 et 20 cm. Elle arbore des feuilles glabres composées de 7 à 9 lobes.
+Sa période de floraison s'étend de juin à août. Elle produit alors des fleurs, de couleur verdâtre, disposées en glomérules.
 </t>
         </is>
       </c>
@@ -575,12 +587,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante se développe principalement dans un environnement montagneux ou dans les prairies, dans des milieux mésotrophes[4]. Elle est observable jusqu'à 2600 m d'altitude[1].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est présente sur plusieurs massifs montagneux européens, comme les Alpes, le Massif Central, les Vosges, le Jura et les Pyrénées. 
+On la retrouve ainsi en Allemagne, en Autriche, en Espagne, en France, en Italie, au Liechtenstein et en Suisse.
+Selon l'Inventaire National du Patrimoine Naturel, l'achemilla alpigena aurait été observée en Norvège et au Groenland.
 </t>
         </is>
       </c>
@@ -606,10 +626,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se développe principalement dans un environnement montagneux ou dans les prairies, dans des milieux mésotrophes. Elle est observable jusqu'à 2600 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alchemilla_alpigena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alchemilla_alpigena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est décrite en premier en 1894 par le botaniste suisse Robert Buser, qui la classe dans le genre alchemilla.
 </t>
